--- a/metriche.xlsx
+++ b/metriche.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\Università\Computer vision and Deep Learning\Progetto\AgriVision2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9550BCF-E1B9-4E77-A2F0-9849346E0EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7EB4B2-D3EC-4659-B0A7-D74B8D7FF05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D8F4C1D4-9854-486B-A8E9-ABB815DDC730}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="85">
   <si>
     <t>Epoche 100</t>
   </si>
@@ -144,6 +144,153 @@
   </si>
   <si>
     <t>0.022428</t>
+  </si>
+  <si>
+    <t>Neural Prophet</t>
+  </si>
+  <si>
+    <t>LSTM</t>
+  </si>
+  <si>
+    <t>GRU</t>
+  </si>
+  <si>
+    <t>0.020991</t>
+  </si>
+  <si>
+    <t>0.000674</t>
+  </si>
+  <si>
+    <t>0.025962</t>
+  </si>
+  <si>
+    <t>0.026453</t>
+  </si>
+  <si>
+    <t>0.001152</t>
+  </si>
+  <si>
+    <t>0.033941</t>
+  </si>
+  <si>
+    <t>0.006274</t>
+  </si>
+  <si>
+    <t>6.6e-05</t>
+  </si>
+  <si>
+    <t>0.008124</t>
+  </si>
+  <si>
+    <t>0.010113</t>
+  </si>
+  <si>
+    <t>0.000168</t>
+  </si>
+  <si>
+    <t>0.012961</t>
+  </si>
+  <si>
+    <t>0.003114</t>
+  </si>
+  <si>
+    <t>1.2e-05</t>
+  </si>
+  <si>
+    <t>0.003464</t>
+  </si>
+  <si>
+    <t>0.003113</t>
+  </si>
+  <si>
+    <t>0.027625</t>
+  </si>
+  <si>
+    <t>0.001239</t>
+  </si>
+  <si>
+    <t>0.035199</t>
+  </si>
+  <si>
+    <t>0.034797</t>
+  </si>
+  <si>
+    <t>0.001911</t>
+  </si>
+  <si>
+    <t>0.043715</t>
+  </si>
+  <si>
+    <t>0.006617</t>
+  </si>
+  <si>
+    <t>8.6e-05</t>
+  </si>
+  <si>
+    <t>0.009274</t>
+  </si>
+  <si>
+    <t>0.005844</t>
+  </si>
+  <si>
+    <t>5.6e-05</t>
+  </si>
+  <si>
+    <t>0.007483</t>
+  </si>
+  <si>
+    <t>0.003008</t>
+  </si>
+  <si>
+    <t>1.1e-05</t>
+  </si>
+  <si>
+    <t>0.003317</t>
+  </si>
+  <si>
+    <t>0.002748</t>
+  </si>
+  <si>
+    <t>0.027043</t>
+  </si>
+  <si>
+    <t>0.001183</t>
+  </si>
+  <si>
+    <t>0.034395</t>
+  </si>
+  <si>
+    <t>0.02039</t>
+  </si>
+  <si>
+    <t>0.000717</t>
+  </si>
+  <si>
+    <t>0.026777</t>
+  </si>
+  <si>
+    <t>0.007311</t>
+  </si>
+  <si>
+    <t>0.009487</t>
+  </si>
+  <si>
+    <t>0.012483</t>
+  </si>
+  <si>
+    <t>0.000241</t>
+  </si>
+  <si>
+    <t>0.015524</t>
+  </si>
+  <si>
+    <t>0.003187</t>
+  </si>
+  <si>
+    <t>0.00268</t>
+  </si>
+  <si>
+    <t>0.003</t>
   </si>
 </sst>
 </file>
@@ -159,12 +306,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -179,8 +344,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -495,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A050CCB-25ED-4CD6-993E-2C15A944AA72}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="R44" sqref="R44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -506,292 +677,1207 @@
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="O1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="H2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="O2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="H3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="O3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="H4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="O4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="H6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="O6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="H7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="O7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="H8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="O8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="H9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="H11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="O11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="H12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="O12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="H13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="O13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="H14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="H16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="O16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="H17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="O17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="H18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="O18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="H19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="O19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C21" t="s">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="H21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="O21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="H22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="O22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="H23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="O23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="H24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C26" t="s">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="H26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="O26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="H27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="O27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="H28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="O28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="H29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="O29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C31" t="s">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="H31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="O31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="H32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="O32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="H33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="O33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="H34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="O34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C36" t="s">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="H36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="O36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="H37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="O37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="H38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I38" s="2">
+        <v>9.0000000000000006E-5</v>
+      </c>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="O38" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="H39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="O39" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C41" t="s">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>1</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="H41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="O41" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>2</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="H42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="O42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>3</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="H43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="O43" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P43" s="4">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="H44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
